--- a/Thesis-codes/Exp-7/results/fc1_all_dataset.xlsx
+++ b/Thesis-codes/Exp-7/results/fc1_all_dataset.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MPhil-thesis-github-library\MPhil-thesis\Thesis-codes\Exp-7\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E4B167-EDD6-4646-AE5A-665780B0D675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEC74CF3-74AC-44BD-B549-090D4A693042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29254" yWindow="1954" windowWidth="27308" windowHeight="14332" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30009" yWindow="1714" windowWidth="27309" windowHeight="14332"/>
   </bookViews>
   <sheets>
     <sheet name="fc1_all_dataset" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">fc1_all_dataset!$A$1:$V$36</definedName>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>fc1_rmse_mean</t>
   </si>
@@ -192,18 +191,12 @@
   </si>
   <si>
     <t>LSTM-ew4</t>
-  </si>
-  <si>
-    <t>TM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -681,21 +674,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1052,37 +1036,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:V36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:D29"/>
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.3828125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.53515625" style="1" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="16.07421875" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="18.23046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="18.921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.23046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.3828125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.23046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.61328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.07421875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.69140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.69140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.4609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.69140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.4609375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.07421875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.61328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.4609375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.53515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.53515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.3828125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.15234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.61328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.4609375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.23046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.23046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.23046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="9.23046875" style="1"/>
   </cols>
   <sheetData>
@@ -1151,2388 +1135,2388 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1">
-        <v>0.64239999999999997</v>
+        <v>0.2427</v>
       </c>
       <c r="C2" s="1">
-        <v>0.19420000000000001</v>
+        <v>0.89480000000000004</v>
       </c>
       <c r="D2" s="1">
-        <v>9.8199999999999996E-2</v>
+        <v>3.7900000000000003E-2</v>
       </c>
       <c r="E2" s="1">
-        <v>30.253299999999999</v>
+        <v>1.6794</v>
       </c>
       <c r="F2" s="1">
-        <v>10.4016</v>
+        <v>1.1581999999999999</v>
       </c>
       <c r="G2" s="2">
-        <v>3.9062500000000002E-7</v>
+        <v>3.1250000000000001E-6</v>
       </c>
       <c r="H2" s="1">
-        <v>0.1986</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="I2" s="1">
-        <v>0.78380000000000005</v>
+        <v>0.25459999999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.36159999999999998</v>
+        <v>0.2281</v>
       </c>
       <c r="K2" s="1">
-        <v>0.40500000000000003</v>
+        <v>9.4000000000000004E-3</v>
       </c>
       <c r="L2" s="1">
-        <v>0.76700000000000002</v>
+        <v>0.9073</v>
       </c>
       <c r="M2" s="1">
-        <v>-9.4799999999999995E-2</v>
+        <v>0.88449999999999995</v>
       </c>
       <c r="N2" s="1">
-        <v>2.92E-2</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="O2" s="1">
-        <v>0.11899999999999999</v>
+        <v>3.8600000000000002E-2</v>
       </c>
       <c r="P2" s="1">
-        <v>5.6899999999999999E-2</v>
+        <v>3.6600000000000001E-2</v>
       </c>
       <c r="Q2" s="1">
-        <v>14.874599999999999</v>
+        <v>1.2E-2</v>
       </c>
       <c r="R2" s="1">
-        <v>41.096499999999999</v>
+        <v>1.6961999999999999</v>
       </c>
       <c r="S2" s="1">
-        <v>9.2208000000000006</v>
+        <v>1.6685000000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>5.0979000000000001</v>
+        <v>6.7000000000000002E-3</v>
       </c>
       <c r="U2" s="1">
-        <v>14.161099999999999</v>
+        <v>1.1640999999999999</v>
       </c>
       <c r="V2" s="1">
-        <v>3.1943999999999999</v>
+        <v>1.1488</v>
       </c>
     </row>
-    <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B3" s="1">
-        <v>0.497</v>
+        <v>0.24049999999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>0.47639999999999999</v>
+        <v>0.89680000000000004</v>
       </c>
       <c r="D3" s="1">
-        <v>7.8899999999999998E-2</v>
+        <v>3.7900000000000003E-2</v>
       </c>
       <c r="E3" s="1">
-        <v>19.441299999999998</v>
+        <v>2.6917</v>
       </c>
       <c r="F3" s="1">
-        <v>6.9273999999999996</v>
+        <v>1.0702</v>
       </c>
       <c r="G3" s="2">
-        <v>7.8125000000000004E-7</v>
+        <v>1.2500000000000001E-5</v>
       </c>
       <c r="H3" s="1">
-        <v>0.21629999999999999</v>
+        <v>2.8E-3</v>
       </c>
       <c r="I3" s="1">
-        <v>0.80279999999999996</v>
+        <v>0.2427</v>
       </c>
       <c r="J3" s="1">
-        <v>0.33779999999999999</v>
+        <v>0.2366</v>
       </c>
       <c r="K3" s="1">
-        <v>0.442</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="L3" s="1">
-        <v>0.79659999999999997</v>
+        <v>0.9002</v>
       </c>
       <c r="M3" s="1">
-        <v>-0.1487</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="N3" s="1">
-        <v>3.09E-2</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="O3" s="1">
-        <v>0.1226</v>
+        <v>3.8399999999999997E-2</v>
       </c>
       <c r="P3" s="1">
-        <v>5.6899999999999999E-2</v>
+        <v>3.73E-2</v>
       </c>
       <c r="Q3" s="1">
-        <v>15.9404</v>
+        <v>4.07E-2</v>
       </c>
       <c r="R3" s="1">
-        <v>41.984099999999998</v>
+        <v>2.7490999999999999</v>
       </c>
       <c r="S3" s="1">
-        <v>8.0640999999999998</v>
+        <v>2.6597</v>
       </c>
       <c r="T3" s="1">
-        <v>5.2096</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="U3" s="1">
-        <v>14.2948</v>
+        <v>1.0842000000000001</v>
       </c>
       <c r="V3" s="1">
-        <v>3.2105999999999999</v>
+        <v>1.048</v>
       </c>
     </row>
-    <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B4" s="1">
-        <v>0.50309999999999999</v>
+        <v>0.2366</v>
       </c>
       <c r="C4" s="1">
-        <v>0.45729999999999998</v>
+        <v>0.9002</v>
       </c>
       <c r="D4" s="1">
-        <v>8.0399999999999999E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="E4" s="1">
-        <v>18.979399999999998</v>
+        <v>2.2770000000000001</v>
       </c>
       <c r="F4" s="1">
-        <v>6.9745999999999997</v>
+        <v>1.0641</v>
       </c>
       <c r="G4" s="2">
-        <v>1.5625000000000001E-6</v>
+        <v>1.2500000000000001E-5</v>
       </c>
       <c r="H4" s="1">
-        <v>0.2268</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="I4" s="1">
-        <v>0.82379999999999998</v>
+        <v>0.24030000000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.33810000000000001</v>
+        <v>0.2319</v>
       </c>
       <c r="K4" s="1">
-        <v>0.47149999999999997</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="L4" s="1">
-        <v>0.79630000000000001</v>
+        <v>0.90410000000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>-0.2094</v>
+        <v>0.89710000000000001</v>
       </c>
       <c r="N4" s="1">
-        <v>3.2899999999999999E-2</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="O4" s="1">
-        <v>0.12690000000000001</v>
+        <v>3.8399999999999997E-2</v>
       </c>
       <c r="P4" s="1">
-        <v>5.7099999999999998E-2</v>
+        <v>3.7699999999999997E-2</v>
       </c>
       <c r="Q4" s="1">
-        <v>16.448399999999999</v>
+        <v>3.5799999999999998E-2</v>
       </c>
       <c r="R4" s="1">
-        <v>42.241</v>
+        <v>2.3258000000000001</v>
       </c>
       <c r="S4" s="1">
-        <v>7.3244999999999996</v>
+        <v>2.2408999999999999</v>
       </c>
       <c r="T4" s="1">
-        <v>5.3860999999999999</v>
+        <v>8.6999999999999994E-3</v>
       </c>
       <c r="U4" s="1">
-        <v>14.5915</v>
+        <v>1.0717000000000001</v>
       </c>
       <c r="V4" s="1">
-        <v>3.1200999999999999</v>
+        <v>1.0519000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B5" s="1">
-        <v>0.4894</v>
+        <v>0.2306</v>
       </c>
       <c r="C5" s="1">
-        <v>0.50490000000000002</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>56</v>
+        <v>0.9052</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3.8600000000000002E-2</v>
       </c>
       <c r="E5" s="1">
-        <v>20.751300000000001</v>
+        <v>2.9609999999999999</v>
       </c>
       <c r="F5" s="1">
-        <v>6.8472999999999997</v>
+        <v>1.1136999999999999</v>
       </c>
       <c r="G5" s="2">
-        <v>3.9062500000000002E-7</v>
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="H5" s="1">
-        <v>0.19570000000000001</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="I5" s="1">
-        <v>0.76600000000000001</v>
+        <v>0.23230000000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.34279999999999999</v>
+        <v>0.2276</v>
       </c>
       <c r="K5" s="1">
-        <v>0.38950000000000001</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="L5" s="1">
-        <v>0.79049999999999998</v>
+        <v>0.90759999999999996</v>
       </c>
       <c r="M5" s="1">
-        <v>-4.58E-2</v>
+        <v>0.90380000000000005</v>
       </c>
       <c r="N5" s="1">
-        <v>2.7900000000000001E-2</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="O5" s="1">
-        <v>0.11600000000000001</v>
+        <v>3.8899999999999997E-2</v>
       </c>
       <c r="P5" s="1">
-        <v>5.67E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="Q5" s="1">
-        <v>13.561500000000001</v>
+        <v>0.10009999999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>39.929699999999997</v>
+        <v>3.0798999999999999</v>
       </c>
       <c r="S5" s="1">
-        <v>11.042400000000001</v>
+        <v>2.835</v>
       </c>
       <c r="T5" s="1">
-        <v>5.1726000000000001</v>
+        <v>2.6800000000000001E-2</v>
       </c>
       <c r="U5" s="1">
-        <v>14.1624</v>
+        <v>1.1452</v>
       </c>
       <c r="V5" s="1">
-        <v>3.1762999999999999</v>
+        <v>1.0795999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1">
-        <v>0.63949999999999996</v>
+        <v>0.24049999999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>0.20280000000000001</v>
+        <v>0.89690000000000003</v>
       </c>
       <c r="D6" s="1">
-        <v>9.7699999999999995E-2</v>
+        <v>3.8699999999999998E-2</v>
       </c>
       <c r="E6" s="1">
-        <v>30.529</v>
+        <v>2.6562000000000001</v>
       </c>
       <c r="F6" s="1">
-        <v>10.481299999999999</v>
+        <v>1.1531</v>
       </c>
       <c r="G6" s="2">
-        <v>1.9531250000000001E-7</v>
+        <v>3.1250000000000001E-6</v>
       </c>
       <c r="H6" s="1">
-        <v>0.19570000000000001</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="I6" s="1">
-        <v>0.7792</v>
+        <v>0.24840000000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.36280000000000001</v>
+        <v>0.23569999999999999</v>
       </c>
       <c r="K6" s="1">
-        <v>0.39779999999999999</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="L6" s="1">
-        <v>0.76539999999999997</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="M6" s="1">
-        <v>-8.2000000000000003E-2</v>
+        <v>0.8901</v>
       </c>
       <c r="N6" s="1">
-        <v>2.86E-2</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="O6" s="1">
-        <v>0.1182</v>
+        <v>3.9399999999999998E-2</v>
       </c>
       <c r="P6" s="1">
-        <v>5.7299999999999997E-2</v>
+        <v>3.8399999999999997E-2</v>
       </c>
       <c r="Q6" s="1">
-        <v>14.6556</v>
+        <v>0.112</v>
       </c>
       <c r="R6" s="1">
-        <v>41.129199999999997</v>
+        <v>2.8020999999999998</v>
       </c>
       <c r="S6" s="1">
-        <v>9.8046000000000006</v>
+        <v>2.5299</v>
       </c>
       <c r="T6" s="1">
-        <v>5.1321000000000003</v>
+        <v>3.2300000000000002E-2</v>
       </c>
       <c r="U6" s="1">
-        <v>14.2225</v>
+        <v>1.1982999999999999</v>
       </c>
       <c r="V6" s="1">
-        <v>3.2246000000000001</v>
+        <v>1.1248</v>
       </c>
     </row>
-    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B7" s="1">
-        <v>0.50339999999999996</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>0.46400000000000002</v>
+        <v>0.8982</v>
       </c>
       <c r="D7" s="1">
-        <v>7.9500000000000001E-2</v>
+        <v>3.8899999999999997E-2</v>
       </c>
       <c r="E7" s="1">
-        <v>19.607700000000001</v>
+        <v>3.6347</v>
       </c>
       <c r="F7" s="1">
-        <v>6.8977000000000004</v>
+        <v>1.0909</v>
       </c>
       <c r="G7" s="2">
-        <v>1.9531250000000001E-7</v>
+        <v>6.2500000000000003E-6</v>
       </c>
       <c r="H7" s="1">
-        <v>0.21740000000000001</v>
+        <v>3.8999999999999998E-3</v>
       </c>
       <c r="I7" s="1">
-        <v>0.81089999999999995</v>
+        <v>0.24429999999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.3493</v>
+        <v>0.2351</v>
       </c>
       <c r="K7" s="1">
-        <v>0.44979999999999998</v>
+        <v>3.3E-3</v>
       </c>
       <c r="L7" s="1">
-        <v>0.78249999999999997</v>
+        <v>0.90139999999999998</v>
       </c>
       <c r="M7" s="1">
-        <v>-0.1721</v>
+        <v>0.89359999999999995</v>
       </c>
       <c r="N7" s="1">
-        <v>3.1699999999999999E-2</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="O7" s="1">
-        <v>0.1242</v>
+        <v>3.95E-2</v>
       </c>
       <c r="P7" s="1">
-        <v>5.7099999999999998E-2</v>
+        <v>3.85E-2</v>
       </c>
       <c r="Q7" s="1">
-        <v>15.960100000000001</v>
+        <v>0.124</v>
       </c>
       <c r="R7" s="1">
-        <v>42.1785</v>
+        <v>3.7307000000000001</v>
       </c>
       <c r="S7" s="1">
-        <v>8.2378999999999998</v>
+        <v>3.4594999999999998</v>
       </c>
       <c r="T7" s="1">
-        <v>5.2530000000000001</v>
+        <v>2.41E-2</v>
       </c>
       <c r="U7" s="1">
-        <v>14.326499999999999</v>
+        <v>1.1162000000000001</v>
       </c>
       <c r="V7" s="1">
-        <v>3.1558999999999999</v>
+        <v>1.0586</v>
       </c>
     </row>
     <row r="8" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B8" s="1">
-        <v>0.49280000000000002</v>
+        <v>0.20860000000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>0.48680000000000001</v>
+        <v>0.9224</v>
       </c>
       <c r="D8" s="1">
-        <v>7.8700000000000006E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="E8" s="1">
-        <v>19.5855</v>
+        <v>2.4485999999999999</v>
       </c>
       <c r="F8" s="1">
-        <v>7.1250999999999998</v>
+        <v>1.3082</v>
       </c>
       <c r="G8" s="2">
-        <v>3.1250000000000001E-6</v>
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="H8" s="1">
-        <v>0.2122</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="I8" s="1">
-        <v>0.79290000000000005</v>
+        <v>0.21479999999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.34150000000000003</v>
+        <v>0.20519999999999999</v>
       </c>
       <c r="K8" s="1">
-        <v>0.42949999999999999</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="L8" s="1">
-        <v>0.79210000000000003</v>
+        <v>0.92490000000000006</v>
       </c>
       <c r="M8" s="1">
-        <v>-0.1206</v>
+        <v>0.91779999999999995</v>
       </c>
       <c r="N8" s="1">
-        <v>2.9700000000000001E-2</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="O8" s="1">
-        <v>0.1207</v>
+        <v>4.0300000000000002E-2</v>
       </c>
       <c r="P8" s="1">
-        <v>5.7500000000000002E-2</v>
+        <v>3.8199999999999998E-2</v>
       </c>
       <c r="Q8" s="1">
-        <v>17.345600000000001</v>
+        <v>0.15959999999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>44.1158</v>
+        <v>2.6616</v>
       </c>
       <c r="S8" s="1">
-        <v>7.3144</v>
+        <v>2.2772000000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>5.4447000000000001</v>
+        <v>3.8300000000000001E-2</v>
       </c>
       <c r="U8" s="1">
-        <v>14.8249</v>
+        <v>1.3622000000000001</v>
       </c>
       <c r="V8" s="1">
-        <v>3.2452999999999999</v>
+        <v>1.2766999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1">
-        <v>0.34229999999999999</v>
+        <v>0.23549999999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>0.79120000000000001</v>
+        <v>0.90110000000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>5.6599999999999998E-2</v>
+        <v>3.9199999999999999E-2</v>
       </c>
       <c r="E9" s="1">
-        <v>9.2561</v>
+        <v>2.9824999999999999</v>
       </c>
       <c r="F9" s="1">
-        <v>3.2075999999999998</v>
+        <v>1.1839</v>
       </c>
       <c r="G9" s="2">
-        <v>3.9062500000000002E-7</v>
+        <v>6.2500000000000003E-6</v>
       </c>
       <c r="H9" s="1">
-        <v>2.8E-3</v>
+        <v>7.7000000000000002E-3</v>
       </c>
       <c r="I9" s="1">
-        <v>0.34560000000000002</v>
+        <v>0.24210000000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.33879999999999999</v>
+        <v>0.22470000000000001</v>
       </c>
       <c r="K9" s="1">
-        <v>3.3999999999999998E-3</v>
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="L9" s="1">
-        <v>0.7954</v>
+        <v>0.91</v>
       </c>
       <c r="M9" s="1">
-        <v>0.78710000000000002</v>
+        <v>0.89549999999999996</v>
       </c>
       <c r="N9" s="1">
-        <v>1E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="O9" s="1">
-        <v>5.6800000000000003E-2</v>
+        <v>4.02E-2</v>
       </c>
       <c r="P9" s="1">
-        <v>5.6500000000000002E-2</v>
+        <v>3.8199999999999998E-2</v>
       </c>
       <c r="Q9" s="1">
-        <v>0.1137</v>
+        <v>0.14779999999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>9.4138000000000002</v>
+        <v>3.1823000000000001</v>
       </c>
       <c r="S9" s="1">
-        <v>9.1498000000000008</v>
+        <v>2.8292999999999999</v>
       </c>
       <c r="T9" s="1">
-        <v>3.4299999999999997E-2</v>
+        <v>1.14E-2</v>
       </c>
       <c r="U9" s="1">
-        <v>3.2484000000000002</v>
+        <v>1.1996</v>
       </c>
       <c r="V9" s="1">
-        <v>3.1644999999999999</v>
+        <v>1.173</v>
       </c>
     </row>
     <row r="10" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B10" s="1">
-        <v>0.34599999999999997</v>
+        <v>0.22770000000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>0.78659999999999997</v>
+        <v>0.90749999999999997</v>
       </c>
       <c r="D10" s="1">
-        <v>5.6899999999999999E-2</v>
+        <v>3.9399999999999998E-2</v>
       </c>
       <c r="E10" s="1">
-        <v>8.1622000000000003</v>
+        <v>2.5411000000000001</v>
       </c>
       <c r="F10" s="1">
-        <v>3.2317999999999998</v>
+        <v>1.2182999999999999</v>
       </c>
       <c r="G10" s="2">
-        <v>1.5625000000000001E-6</v>
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="H10" s="1">
-        <v>4.4000000000000003E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="I10" s="1">
-        <v>0.35039999999999999</v>
+        <v>0.22969999999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.34</v>
+        <v>0.22639999999999999</v>
       </c>
       <c r="K10" s="1">
-        <v>5.4000000000000003E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="L10" s="1">
-        <v>0.79390000000000005</v>
+        <v>0.90859999999999996</v>
       </c>
       <c r="M10" s="1">
-        <v>0.78120000000000001</v>
+        <v>0.90590000000000004</v>
       </c>
       <c r="N10" s="1">
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="O10" s="1">
-        <v>5.74E-2</v>
+        <v>3.9899999999999998E-2</v>
       </c>
       <c r="P10" s="1">
-        <v>5.6500000000000002E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="Q10" s="1">
-        <v>8.4500000000000006E-2</v>
+        <v>7.1300000000000002E-2</v>
       </c>
       <c r="R10" s="1">
-        <v>8.2270000000000003</v>
+        <v>2.6236999999999999</v>
       </c>
       <c r="S10" s="1">
-        <v>8.0427999999999997</v>
+        <v>2.4496000000000002</v>
       </c>
       <c r="T10" s="1">
-        <v>1.9199999999999998E-2</v>
+        <v>3.2399999999999998E-2</v>
       </c>
       <c r="U10" s="1">
-        <v>3.2467999999999999</v>
+        <v>1.2622</v>
       </c>
       <c r="V10" s="1">
-        <v>3.2046999999999999</v>
+        <v>1.1848000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B11" s="1">
-        <v>0.34549999999999997</v>
+        <v>0.2177</v>
       </c>
       <c r="C11" s="1">
-        <v>0.78710000000000002</v>
+        <v>0.91549999999999998</v>
       </c>
       <c r="D11" s="1">
-        <v>5.7299999999999997E-2</v>
+        <v>0.04</v>
       </c>
       <c r="E11" s="1">
-        <v>7.3026999999999997</v>
+        <v>1.7264999999999999</v>
       </c>
       <c r="F11" s="1">
-        <v>3.2256</v>
+        <v>1.2075</v>
       </c>
       <c r="G11" s="2">
-        <v>3.1250000000000001E-6</v>
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="H11" s="1">
-        <v>5.8999999999999999E-3</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="I11" s="1">
-        <v>0.3538</v>
+        <v>0.2185</v>
       </c>
       <c r="J11" s="1">
-        <v>0.34089999999999998</v>
+        <v>0.21690000000000001</v>
       </c>
       <c r="K11" s="1">
-        <v>7.1999999999999998E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="L11" s="1">
-        <v>0.79279999999999995</v>
+        <v>0.91620000000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>0.77690000000000003</v>
+        <v>0.91490000000000005</v>
       </c>
       <c r="N11" s="1">
-        <v>5.9999999999999995E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="O11" s="1">
-        <v>5.8200000000000002E-2</v>
+        <v>4.1099999999999998E-2</v>
       </c>
       <c r="P11" s="1">
-        <v>5.67E-2</v>
+        <v>3.8800000000000001E-2</v>
       </c>
       <c r="Q11" s="1">
-        <v>0.1467</v>
+        <v>6.7199999999999996E-2</v>
       </c>
       <c r="R11" s="1">
-        <v>7.5091000000000001</v>
+        <v>1.8214999999999999</v>
       </c>
       <c r="S11" s="1">
-        <v>7.1818999999999997</v>
+        <v>1.6759999999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>2.0400000000000001E-2</v>
+        <v>2.8299999999999999E-2</v>
       </c>
       <c r="U11" s="1">
-        <v>3.2406000000000001</v>
+        <v>1.2292000000000001</v>
       </c>
       <c r="V11" s="1">
-        <v>3.1968000000000001</v>
+        <v>1.1675</v>
       </c>
     </row>
     <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B12" s="1">
-        <v>0.35920000000000002</v>
+        <v>0.23760000000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>0.77</v>
+        <v>0.89939999999999998</v>
       </c>
       <c r="D12" s="1">
-        <v>5.6300000000000003E-2</v>
+        <v>4.02E-2</v>
       </c>
       <c r="E12" s="1">
-        <v>11.0844</v>
+        <v>3.8477000000000001</v>
       </c>
       <c r="F12" s="1">
-        <v>3.2791999999999999</v>
+        <v>1.1545000000000001</v>
       </c>
       <c r="G12" s="2">
-        <v>1.5625000000000001E-6</v>
+        <v>6.2500000000000003E-6</v>
       </c>
       <c r="H12" s="1">
-        <v>3.5999999999999999E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="I12" s="1">
-        <v>0.36409999999999998</v>
+        <v>0.23880000000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.35539999999999999</v>
+        <v>0.2359</v>
       </c>
       <c r="K12" s="1">
-        <v>4.7000000000000002E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="L12" s="1">
-        <v>0.77490000000000003</v>
+        <v>0.90080000000000005</v>
       </c>
       <c r="M12" s="1">
-        <v>0.76370000000000005</v>
+        <v>0.89839999999999998</v>
       </c>
       <c r="N12" s="1">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="O12" s="1">
+        <v>4.19E-2</v>
+      </c>
+      <c r="P12" s="1">
+        <v>3.9E-2</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0.1988</v>
+      </c>
+      <c r="R12" s="1">
+        <v>4.1130000000000004</v>
+      </c>
+      <c r="S12" s="1">
+        <v>3.6345999999999998</v>
+      </c>
+      <c r="T12" s="1">
+        <v>2.92E-2</v>
+      </c>
+      <c r="U12" s="1">
+        <v>1.1909000000000001</v>
+      </c>
+      <c r="V12" s="1">
+        <v>1.1194999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.21829999999999999</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4.0899999999999999E-2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1.4386000000000001</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1.246</v>
+      </c>
+      <c r="G13" s="2">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="H13" s="1">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.22320000000000001</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.2157</v>
+      </c>
+      <c r="K13" s="1">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0.91710000000000003</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0.91120000000000001</v>
+      </c>
+      <c r="N13" s="1">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="O12" s="1">
-        <v>5.7099999999999998E-2</v>
-      </c>
-      <c r="P12" s="1">
-        <v>5.57E-2</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>1.6799999999999999E-2</v>
-      </c>
-      <c r="R12" s="1">
-        <v>11.1081</v>
-      </c>
-      <c r="S12" s="1">
-        <v>11.0707</v>
-      </c>
-      <c r="T12" s="1">
-        <v>6.9500000000000006E-2</v>
-      </c>
-      <c r="U12" s="1">
-        <v>3.3412999999999999</v>
-      </c>
-      <c r="V12" s="1">
-        <v>3.1821000000000002</v>
+      <c r="O13" s="1">
+        <v>4.1399999999999999E-2</v>
+      </c>
+      <c r="P13" s="1">
+        <v>4.0099999999999997E-2</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>6.4100000000000004E-2</v>
+      </c>
+      <c r="R13" s="1">
+        <v>1.5158</v>
+      </c>
+      <c r="S13" s="1">
+        <v>1.3588</v>
+      </c>
+      <c r="T13" s="1">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="U13" s="1">
+        <v>1.2533000000000001</v>
+      </c>
+      <c r="V13" s="1">
+        <v>1.2391000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0.35670000000000002</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.7732</v>
-      </c>
-      <c r="D13" s="1">
-        <v>5.7299999999999997E-2</v>
-      </c>
-      <c r="E13" s="1">
-        <v>9.8366000000000007</v>
-      </c>
-      <c r="F13" s="1">
-        <v>3.2342</v>
-      </c>
-      <c r="G13" s="2">
-        <v>1.5625000000000001E-6</v>
-      </c>
-      <c r="H13" s="1">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0.36099999999999999</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0.3543</v>
-      </c>
-      <c r="K13" s="1">
-        <v>3.8999999999999998E-3</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0.77629999999999999</v>
-      </c>
-      <c r="M13" s="1">
-        <v>0.76770000000000005</v>
-      </c>
-      <c r="N13" s="1">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="O13" s="1">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="P13" s="1">
-        <v>5.67E-2</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>0.1174</v>
-      </c>
-      <c r="R13" s="1">
-        <v>9.9998000000000005</v>
-      </c>
-      <c r="S13" s="1">
-        <v>9.7286000000000001</v>
-      </c>
-      <c r="T13" s="1">
-        <v>5.8900000000000001E-2</v>
-      </c>
-      <c r="U13" s="1">
-        <v>3.2985000000000002</v>
-      </c>
-      <c r="V13" s="1">
-        <v>3.1562000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1">
-        <v>0.34760000000000002</v>
+        <v>0.2472</v>
       </c>
       <c r="C14" s="1">
-        <v>0.78459999999999996</v>
+        <v>0.89090000000000003</v>
       </c>
       <c r="D14" s="1">
-        <v>5.6899999999999999E-2</v>
+        <v>4.1099999999999998E-2</v>
       </c>
       <c r="E14" s="1">
-        <v>8.3104999999999993</v>
+        <v>5.7386999999999997</v>
       </c>
       <c r="F14" s="1">
-        <v>3.2401</v>
+        <v>1.1552</v>
       </c>
       <c r="G14" s="2">
-        <v>1.5625000000000001E-6</v>
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="H14" s="1">
-        <v>2E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="I14" s="1">
-        <v>0.35020000000000001</v>
+        <v>0.25990000000000002</v>
       </c>
       <c r="J14" s="1">
-        <v>0.34520000000000001</v>
+        <v>0.24049999999999999</v>
       </c>
       <c r="K14" s="1">
-        <v>2.5000000000000001E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="L14" s="1">
-        <v>0.78759999999999997</v>
+        <v>0.89690000000000003</v>
       </c>
       <c r="M14" s="1">
-        <v>0.78139999999999998</v>
+        <v>0.87960000000000005</v>
       </c>
       <c r="N14" s="1">
-        <v>2.0000000000000001E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="O14" s="1">
-        <v>5.7200000000000001E-2</v>
+        <v>4.1599999999999998E-2</v>
       </c>
       <c r="P14" s="1">
-        <v>5.67E-2</v>
+        <v>4.0099999999999997E-2</v>
       </c>
       <c r="Q14" s="1">
-        <v>6.6299999999999998E-2</v>
+        <v>0.13969999999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>8.3895999999999997</v>
+        <v>5.9362000000000004</v>
       </c>
       <c r="S14" s="1">
-        <v>8.2273999999999994</v>
+        <v>5.6379999999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>7.3999999999999996E-2</v>
+        <v>1.09E-2</v>
       </c>
       <c r="U14" s="1">
-        <v>3.3412000000000002</v>
+        <v>1.1637999999999999</v>
       </c>
       <c r="V14" s="1">
-        <v>3.1657999999999999</v>
+        <v>1.1397999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B15" s="1">
-        <v>0.34210000000000002</v>
+        <v>0.2293</v>
       </c>
       <c r="C15" s="1">
-        <v>0.79139999999999999</v>
+        <v>0.90629999999999999</v>
       </c>
       <c r="D15" s="1">
-        <v>5.7000000000000002E-2</v>
+        <v>4.1300000000000003E-2</v>
       </c>
       <c r="E15" s="1">
-        <v>7.3015999999999996</v>
+        <v>4.3780999999999999</v>
       </c>
       <c r="F15" s="1">
-        <v>3.2299000000000002</v>
+        <v>1.4159999999999999</v>
       </c>
       <c r="G15" s="2">
-        <v>3.1250000000000001E-6</v>
+        <v>6.2500000000000003E-6</v>
       </c>
       <c r="H15" s="1">
-        <v>4.3E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
       <c r="I15" s="1">
-        <v>0.34799999999999998</v>
+        <v>0.23319999999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.3377</v>
+        <v>0.22489999999999999</v>
       </c>
       <c r="K15" s="1">
-        <v>5.3E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="L15" s="1">
-        <v>0.79679999999999995</v>
+        <v>0.90990000000000004</v>
       </c>
       <c r="M15" s="1">
-        <v>0.78420000000000001</v>
+        <v>0.90310000000000001</v>
       </c>
       <c r="N15" s="1">
-        <v>1E-4</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="O15" s="1">
-        <v>5.7200000000000001E-2</v>
+        <v>4.24E-2</v>
       </c>
       <c r="P15" s="1">
-        <v>5.6899999999999999E-2</v>
+        <v>4.02E-2</v>
       </c>
       <c r="Q15" s="1">
-        <v>7.2900000000000006E-2</v>
+        <v>0.18740000000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>7.3569000000000004</v>
+        <v>4.6356000000000002</v>
       </c>
       <c r="S15" s="1">
-        <v>7.1985000000000001</v>
+        <v>4.1951000000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>4.0800000000000003E-2</v>
+        <v>3.9699999999999999E-2</v>
       </c>
       <c r="U15" s="1">
-        <v>3.2696000000000001</v>
+        <v>1.4698</v>
       </c>
       <c r="V15" s="1">
-        <v>3.1738</v>
+        <v>1.3754</v>
       </c>
     </row>
     <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B16" s="1">
-        <v>0.23760000000000001</v>
+        <v>0.22359999999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>0.89939999999999998</v>
+        <v>0.91090000000000004</v>
       </c>
       <c r="D16" s="1">
-        <v>4.02E-2</v>
+        <v>4.1700000000000001E-2</v>
       </c>
       <c r="E16" s="1">
-        <v>3.8477000000000001</v>
+        <v>3.2707999999999999</v>
       </c>
       <c r="F16" s="1">
-        <v>1.1545000000000001</v>
+        <v>1.4258</v>
       </c>
       <c r="G16" s="2">
-        <v>6.2500000000000003E-6</v>
+        <v>3.1250000000000001E-6</v>
       </c>
       <c r="H16" s="1">
-        <v>1.1999999999999999E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="I16" s="1">
-        <v>0.23880000000000001</v>
+        <v>0.22589999999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.2359</v>
+        <v>0.22140000000000001</v>
       </c>
       <c r="K16" s="1">
-        <v>1E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="L16" s="1">
-        <v>0.90080000000000005</v>
+        <v>0.91269999999999996</v>
       </c>
       <c r="M16" s="1">
-        <v>0.89839999999999998</v>
+        <v>0.90910000000000002</v>
       </c>
       <c r="N16" s="1">
-        <v>1.1999999999999999E-3</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="O16" s="1">
-        <v>4.19E-2</v>
+        <v>4.2599999999999999E-2</v>
       </c>
       <c r="P16" s="1">
-        <v>3.9E-2</v>
+        <v>4.0899999999999999E-2</v>
       </c>
       <c r="Q16" s="1">
-        <v>0.1988</v>
+        <v>0.10920000000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>4.1130000000000004</v>
+        <v>3.4009999999999998</v>
       </c>
       <c r="S16" s="1">
-        <v>3.6345999999999998</v>
+        <v>3.1337000000000002</v>
       </c>
       <c r="T16" s="1">
-        <v>2.92E-2</v>
+        <v>3.6499999999999998E-2</v>
       </c>
       <c r="U16" s="1">
-        <v>1.1909000000000001</v>
+        <v>1.4772000000000001</v>
       </c>
       <c r="V16" s="1">
-        <v>1.1194999999999999</v>
+        <v>1.3966000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1">
-        <v>0.2306</v>
+        <v>0.248</v>
       </c>
       <c r="C17" s="1">
-        <v>0.9052</v>
+        <v>0.89029999999999998</v>
       </c>
       <c r="D17" s="1">
-        <v>3.8600000000000002E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="E17" s="1">
-        <v>2.9609999999999999</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1.1136999999999999</v>
+        <v>6.2262000000000004</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1.2439</v>
       </c>
       <c r="G17" s="2">
-        <v>2.5000000000000001E-5</v>
+        <v>3.1250000000000001E-6</v>
       </c>
       <c r="H17" s="1">
-        <v>2.0999999999999999E-3</v>
+        <v>5.1000000000000004E-3</v>
       </c>
       <c r="I17" s="1">
-        <v>0.23230000000000001</v>
+        <v>0.25419999999999998</v>
       </c>
       <c r="J17" s="1">
-        <v>0.2276</v>
+        <v>0.24179999999999999</v>
       </c>
       <c r="K17" s="1">
-        <v>1.6999999999999999E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="L17" s="1">
-        <v>0.90759999999999996</v>
+        <v>0.89580000000000004</v>
       </c>
       <c r="M17" s="1">
-        <v>0.90380000000000005</v>
+        <v>0.88480000000000003</v>
       </c>
       <c r="N17" s="1">
-        <v>4.0000000000000002E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="O17" s="1">
-        <v>3.8899999999999997E-2</v>
+        <v>4.2700000000000002E-2</v>
       </c>
       <c r="P17" s="1">
-        <v>3.7999999999999999E-2</v>
+        <v>4.1300000000000003E-2</v>
       </c>
       <c r="Q17" s="1">
-        <v>0.10009999999999999</v>
+        <v>8.7300000000000003E-2</v>
       </c>
       <c r="R17" s="1">
-        <v>3.0798999999999999</v>
+        <v>6.3468</v>
       </c>
       <c r="S17" s="1">
-        <v>2.835</v>
+        <v>6.1425000000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>2.6800000000000001E-2</v>
+        <v>1.3100000000000001E-2</v>
       </c>
       <c r="U17" s="1">
-        <v>1.1452</v>
+        <v>1.2588999999999999</v>
       </c>
       <c r="V17" s="1">
-        <v>1.0795999999999999</v>
+        <v>1.2270000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B18" s="1">
-        <v>0.22770000000000001</v>
+        <v>0.24129999999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>0.90749999999999997</v>
+        <v>0.8962</v>
       </c>
       <c r="D18" s="1">
-        <v>3.9399999999999998E-2</v>
+        <v>4.24E-2</v>
       </c>
       <c r="E18" s="1">
-        <v>2.5411000000000001</v>
+        <v>4.8356000000000003</v>
       </c>
       <c r="F18" s="1">
-        <v>1.2182999999999999</v>
+        <v>1.35</v>
       </c>
       <c r="G18" s="2">
-        <v>2.5000000000000001E-5</v>
+        <v>1.2500000000000001E-5</v>
       </c>
       <c r="H18" s="1">
-        <v>1.4E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="I18" s="1">
-        <v>0.22969999999999999</v>
+        <v>0.247</v>
       </c>
       <c r="J18" s="1">
-        <v>0.22639999999999999</v>
+        <v>0.23810000000000001</v>
       </c>
       <c r="K18" s="1">
-        <v>1.1999999999999999E-3</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="L18" s="1">
-        <v>0.90859999999999996</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="M18" s="1">
-        <v>0.90590000000000004</v>
+        <v>0.89129999999999998</v>
       </c>
       <c r="N18" s="1">
-        <v>4.0000000000000002E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="O18" s="1">
-        <v>3.9899999999999998E-2</v>
+        <v>4.3299999999999998E-2</v>
       </c>
       <c r="P18" s="1">
-        <v>3.9E-2</v>
+        <v>4.1799999999999997E-2</v>
       </c>
       <c r="Q18" s="1">
-        <v>7.1300000000000002E-2</v>
+        <v>0.1855</v>
       </c>
       <c r="R18" s="1">
-        <v>2.6236999999999999</v>
+        <v>4.9672000000000001</v>
       </c>
       <c r="S18" s="1">
-        <v>2.4496000000000002</v>
+        <v>4.5732999999999997</v>
       </c>
       <c r="T18" s="1">
-        <v>3.2399999999999998E-2</v>
+        <v>6.4399999999999999E-2</v>
       </c>
       <c r="U18" s="1">
-        <v>1.2622</v>
+        <v>1.4409000000000001</v>
       </c>
       <c r="V18" s="1">
-        <v>1.1848000000000001</v>
+        <v>1.3021</v>
       </c>
     </row>
     <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B19" s="1">
-        <v>0.248</v>
+        <v>0.23769999999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>0.89029999999999998</v>
+        <v>0.89929999999999999</v>
       </c>
       <c r="D19" s="1">
-        <v>4.2000000000000003E-2</v>
+        <v>4.2599999999999999E-2</v>
       </c>
       <c r="E19" s="1">
-        <v>6.2262000000000004</v>
+        <v>4.1113</v>
       </c>
       <c r="F19" s="1">
-        <v>1.2439</v>
+        <v>1.4554</v>
       </c>
       <c r="G19" s="2">
         <v>3.1250000000000001E-6</v>
       </c>
       <c r="H19" s="1">
-        <v>5.1000000000000004E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="I19" s="1">
-        <v>0.25419999999999998</v>
+        <v>0.2402</v>
       </c>
       <c r="J19" s="1">
-        <v>0.24179999999999999</v>
+        <v>0.2364</v>
       </c>
       <c r="K19" s="1">
-        <v>4.4999999999999997E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="L19" s="1">
-        <v>0.89580000000000004</v>
+        <v>0.90039999999999998</v>
       </c>
       <c r="M19" s="1">
-        <v>0.88480000000000003</v>
+        <v>0.8972</v>
       </c>
       <c r="N19" s="1">
-        <v>5.9999999999999995E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="O19" s="1">
+        <v>4.3099999999999999E-2</v>
+      </c>
+      <c r="P19" s="1">
+        <v>4.2200000000000001E-2</v>
+      </c>
+      <c r="Q19" s="1">
         <v>4.2700000000000002E-2</v>
       </c>
-      <c r="P19" s="1">
-        <v>4.1300000000000003E-2</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>8.7300000000000003E-2</v>
-      </c>
       <c r="R19" s="1">
-        <v>6.3468</v>
+        <v>4.1642000000000001</v>
       </c>
       <c r="S19" s="1">
-        <v>6.1425000000000001</v>
+        <v>4.0597000000000003</v>
       </c>
       <c r="T19" s="1">
-        <v>1.3100000000000001E-2</v>
+        <v>4.0800000000000003E-2</v>
       </c>
       <c r="U19" s="1">
-        <v>1.2588999999999999</v>
+        <v>1.5063</v>
       </c>
       <c r="V19" s="1">
-        <v>1.2270000000000001</v>
+        <v>1.4064000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B20" s="1">
-        <v>0.23549999999999999</v>
+        <v>0.2407</v>
       </c>
       <c r="C20" s="1">
-        <v>0.90110000000000001</v>
+        <v>0.89670000000000005</v>
       </c>
       <c r="D20" s="1">
-        <v>3.9199999999999999E-2</v>
+        <v>4.2700000000000002E-2</v>
       </c>
       <c r="E20" s="1">
-        <v>2.9824999999999999</v>
+        <v>3.5501</v>
       </c>
       <c r="F20" s="1">
-        <v>1.1839</v>
+        <v>1.5065999999999999</v>
       </c>
       <c r="G20" s="2">
-        <v>6.2500000000000003E-6</v>
+        <v>1.2500000000000001E-5</v>
       </c>
       <c r="H20" s="1">
-        <v>7.7000000000000002E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="I20" s="1">
-        <v>0.24210000000000001</v>
+        <v>0.24279999999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.22470000000000001</v>
+        <v>0.23760000000000001</v>
       </c>
       <c r="K20" s="1">
-        <v>6.4000000000000003E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="L20" s="1">
-        <v>0.91</v>
+        <v>0.89939999999999998</v>
       </c>
       <c r="M20" s="1">
-        <v>0.89549999999999996</v>
+        <v>0.89490000000000003</v>
       </c>
       <c r="N20" s="1">
-        <v>8.0000000000000004E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="O20" s="1">
-        <v>4.02E-2</v>
+        <v>4.3099999999999999E-2</v>
       </c>
       <c r="P20" s="1">
-        <v>3.8199999999999998E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="Q20" s="1">
-        <v>0.14779999999999999</v>
+        <v>8.6300000000000002E-2</v>
       </c>
       <c r="R20" s="1">
-        <v>3.1823000000000001</v>
+        <v>3.6234000000000002</v>
       </c>
       <c r="S20" s="1">
-        <v>2.8292999999999999</v>
+        <v>3.4289999999999998</v>
       </c>
       <c r="T20" s="1">
-        <v>1.14E-2</v>
+        <v>3.5900000000000001E-2</v>
       </c>
       <c r="U20" s="1">
-        <v>1.1996</v>
+        <v>1.554</v>
       </c>
       <c r="V20" s="1">
-        <v>1.173</v>
+        <v>1.4670000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B21" s="1">
-        <v>0.20860000000000001</v>
+        <v>0.24890000000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>0.9224</v>
+        <v>0.88949999999999996</v>
       </c>
       <c r="D21" s="1">
-        <v>3.9E-2</v>
+        <v>4.3700000000000003E-2</v>
       </c>
       <c r="E21" s="1">
-        <v>2.4485999999999999</v>
+        <v>6.8122999999999996</v>
       </c>
       <c r="F21" s="1">
-        <v>1.3082</v>
+        <v>1.4610000000000001</v>
       </c>
       <c r="G21" s="2">
-        <v>2.5000000000000001E-5</v>
+        <v>1.2500000000000001E-5</v>
       </c>
       <c r="H21" s="1">
-        <v>4.4000000000000003E-3</v>
+        <v>6.1000000000000004E-3</v>
       </c>
       <c r="I21" s="1">
-        <v>0.21479999999999999</v>
+        <v>0.25569999999999998</v>
       </c>
       <c r="J21" s="1">
-        <v>0.20519999999999999</v>
+        <v>0.24079999999999999</v>
       </c>
       <c r="K21" s="1">
-        <v>3.2000000000000002E-3</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="L21" s="1">
-        <v>0.92490000000000006</v>
+        <v>0.89670000000000005</v>
       </c>
       <c r="M21" s="1">
-        <v>0.91779999999999995</v>
+        <v>0.88339999999999996</v>
       </c>
       <c r="N21" s="1">
-        <v>8.9999999999999998E-4</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="O21" s="1">
-        <v>4.0300000000000002E-2</v>
+        <v>4.4900000000000002E-2</v>
       </c>
       <c r="P21" s="1">
-        <v>3.8199999999999998E-2</v>
+        <v>4.2099999999999999E-2</v>
       </c>
       <c r="Q21" s="1">
-        <v>0.15959999999999999</v>
+        <v>0.29210000000000003</v>
       </c>
       <c r="R21" s="1">
-        <v>2.6616</v>
+        <v>7.0274000000000001</v>
       </c>
       <c r="S21" s="1">
-        <v>2.2772000000000001</v>
+        <v>6.3994</v>
       </c>
       <c r="T21" s="1">
-        <v>3.8300000000000001E-2</v>
+        <v>6.2799999999999995E-2</v>
       </c>
       <c r="U21" s="1">
-        <v>1.3622000000000001</v>
+        <v>1.5419</v>
       </c>
       <c r="V21" s="1">
-        <v>1.2766999999999999</v>
+        <v>1.3887</v>
       </c>
     </row>
     <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" s="1">
-        <v>0.2177</v>
+        <v>0.23319999999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>0.91549999999999998</v>
+        <v>0.90310000000000001</v>
       </c>
       <c r="D22" s="1">
-        <v>0.04</v>
+        <v>4.4299999999999999E-2</v>
       </c>
       <c r="E22" s="1">
-        <v>1.7264999999999999</v>
+        <v>2.7721</v>
       </c>
       <c r="F22" s="1">
-        <v>1.2075</v>
+        <v>1.6488</v>
       </c>
       <c r="G22" s="2">
-        <v>2.5000000000000001E-5</v>
+        <v>6.2500000000000003E-6</v>
       </c>
       <c r="H22" s="1">
-        <v>6.9999999999999999E-4</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="I22" s="1">
-        <v>0.2185</v>
+        <v>0.23780000000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.21690000000000001</v>
+        <v>0.22720000000000001</v>
       </c>
       <c r="K22" s="1">
-        <v>5.0000000000000001E-4</v>
+        <v>3.7000000000000002E-3</v>
       </c>
       <c r="L22" s="1">
-        <v>0.91620000000000001</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="M22" s="1">
-        <v>0.91490000000000005</v>
+        <v>0.8992</v>
       </c>
       <c r="N22" s="1">
-        <v>1E-3</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="O22" s="1">
-        <v>4.1099999999999998E-2</v>
+        <v>4.4499999999999998E-2</v>
       </c>
       <c r="P22" s="1">
-        <v>3.8800000000000001E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="Q22" s="1">
-        <v>6.7199999999999996E-2</v>
+        <v>8.7300000000000003E-2</v>
       </c>
       <c r="R22" s="1">
-        <v>1.8214999999999999</v>
+        <v>2.8921999999999999</v>
       </c>
       <c r="S22" s="1">
-        <v>1.6759999999999999</v>
+        <v>2.6875</v>
       </c>
       <c r="T22" s="1">
-        <v>2.8299999999999999E-2</v>
+        <v>4.0800000000000003E-2</v>
       </c>
       <c r="U22" s="1">
-        <v>1.2292000000000001</v>
+        <v>1.6883999999999999</v>
       </c>
       <c r="V22" s="1">
-        <v>1.1675</v>
+        <v>1.5926</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B23" s="1">
-        <v>0.2427</v>
+        <v>0.35920000000000002</v>
       </c>
       <c r="C23" s="1">
-        <v>0.89480000000000004</v>
+        <v>0.77</v>
       </c>
       <c r="D23" s="1">
-        <v>3.7900000000000003E-2</v>
+        <v>5.6300000000000003E-2</v>
       </c>
       <c r="E23" s="1">
-        <v>1.6794</v>
+        <v>11.0844</v>
       </c>
       <c r="F23" s="1">
-        <v>1.1581999999999999</v>
+        <v>3.2791999999999999</v>
       </c>
       <c r="G23" s="2">
-        <v>3.1250000000000001E-6</v>
+        <v>1.5625000000000001E-6</v>
       </c>
       <c r="H23" s="1">
-        <v>1.0999999999999999E-2</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="I23" s="1">
-        <v>0.25459999999999999</v>
+        <v>0.36409999999999998</v>
       </c>
       <c r="J23" s="1">
-        <v>0.2281</v>
+        <v>0.35539999999999999</v>
       </c>
       <c r="K23" s="1">
-        <v>9.4000000000000004E-3</v>
+        <v>4.7000000000000002E-3</v>
       </c>
       <c r="L23" s="1">
-        <v>0.9073</v>
+        <v>0.77490000000000003</v>
       </c>
       <c r="M23" s="1">
-        <v>0.88449999999999995</v>
+        <v>0.76370000000000005</v>
       </c>
       <c r="N23" s="1">
-        <v>8.9999999999999998E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="O23" s="1">
-        <v>3.8600000000000002E-2</v>
+        <v>5.7099999999999998E-2</v>
       </c>
       <c r="P23" s="1">
-        <v>3.6600000000000001E-2</v>
+        <v>5.57E-2</v>
       </c>
       <c r="Q23" s="1">
-        <v>1.2E-2</v>
+        <v>1.6799999999999999E-2</v>
       </c>
       <c r="R23" s="1">
-        <v>1.6961999999999999</v>
+        <v>11.1081</v>
       </c>
       <c r="S23" s="1">
-        <v>1.6685000000000001</v>
+        <v>11.0707</v>
       </c>
       <c r="T23" s="1">
-        <v>6.7000000000000002E-3</v>
+        <v>6.9500000000000006E-2</v>
       </c>
       <c r="U23" s="1">
-        <v>1.1640999999999999</v>
+        <v>3.3412999999999999</v>
       </c>
       <c r="V23" s="1">
-        <v>1.1488</v>
+        <v>3.1821000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B24" s="1">
-        <v>0.24049999999999999</v>
+        <v>0.34229999999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>0.89680000000000004</v>
+        <v>0.79120000000000001</v>
       </c>
       <c r="D24" s="1">
-        <v>3.7900000000000003E-2</v>
+        <v>5.6599999999999998E-2</v>
       </c>
       <c r="E24" s="1">
-        <v>2.6917</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1.0702</v>
+        <v>9.2561</v>
+      </c>
+      <c r="F24" s="1">
+        <v>3.2075999999999998</v>
       </c>
       <c r="G24" s="2">
-        <v>1.2500000000000001E-5</v>
+        <v>3.9062500000000002E-7</v>
       </c>
       <c r="H24" s="1">
         <v>2.8E-3</v>
       </c>
       <c r="I24" s="1">
-        <v>0.2427</v>
+        <v>0.34560000000000002</v>
       </c>
       <c r="J24" s="1">
-        <v>0.2366</v>
+        <v>0.33879999999999999</v>
       </c>
       <c r="K24" s="1">
-        <v>2.3999999999999998E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
       <c r="L24" s="1">
-        <v>0.9002</v>
+        <v>0.7954</v>
       </c>
       <c r="M24" s="1">
-        <v>0.89500000000000002</v>
+        <v>0.78710000000000002</v>
       </c>
       <c r="N24" s="1">
-        <v>4.0000000000000002E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="O24" s="1">
-        <v>3.8399999999999997E-2</v>
+        <v>5.6800000000000003E-2</v>
       </c>
       <c r="P24" s="1">
-        <v>3.73E-2</v>
+        <v>5.6500000000000002E-2</v>
       </c>
       <c r="Q24" s="1">
-        <v>4.07E-2</v>
+        <v>0.1137</v>
       </c>
       <c r="R24" s="1">
-        <v>2.7490999999999999</v>
+        <v>9.4138000000000002</v>
       </c>
       <c r="S24" s="1">
-        <v>2.6597</v>
+        <v>9.1498000000000008</v>
       </c>
       <c r="T24" s="1">
-        <v>1.5900000000000001E-2</v>
+        <v>3.4299999999999997E-2</v>
       </c>
       <c r="U24" s="1">
-        <v>1.0842000000000001</v>
+        <v>3.2484000000000002</v>
       </c>
       <c r="V24" s="1">
-        <v>1.048</v>
+        <v>3.1644999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B25" s="1">
-        <v>0.2366</v>
+        <v>0.34760000000000002</v>
       </c>
       <c r="C25" s="1">
-        <v>0.9002</v>
+        <v>0.78459999999999996</v>
       </c>
       <c r="D25" s="1">
-        <v>3.7999999999999999E-2</v>
+        <v>5.6899999999999999E-2</v>
       </c>
       <c r="E25" s="1">
-        <v>2.2770000000000001</v>
-      </c>
-      <c r="F25" s="3">
-        <v>1.0641</v>
+        <v>8.3104999999999993</v>
+      </c>
+      <c r="F25" s="1">
+        <v>3.2401</v>
       </c>
       <c r="G25" s="2">
-        <v>1.2500000000000001E-5</v>
+        <v>1.5625000000000001E-6</v>
       </c>
       <c r="H25" s="1">
-        <v>3.5000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="I25" s="1">
-        <v>0.24030000000000001</v>
+        <v>0.35020000000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.2319</v>
+        <v>0.34520000000000001</v>
       </c>
       <c r="K25" s="1">
-        <v>2.8999999999999998E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="L25" s="1">
-        <v>0.90410000000000001</v>
+        <v>0.78759999999999997</v>
       </c>
       <c r="M25" s="1">
-        <v>0.89710000000000001</v>
+        <v>0.78139999999999998</v>
       </c>
       <c r="N25" s="1">
-        <v>2.9999999999999997E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="O25" s="1">
-        <v>3.8399999999999997E-2</v>
+        <v>5.7200000000000001E-2</v>
       </c>
       <c r="P25" s="1">
-        <v>3.7699999999999997E-2</v>
+        <v>5.67E-2</v>
       </c>
       <c r="Q25" s="1">
-        <v>3.5799999999999998E-2</v>
+        <v>6.6299999999999998E-2</v>
       </c>
       <c r="R25" s="1">
-        <v>2.3258000000000001</v>
+        <v>8.3895999999999997</v>
       </c>
       <c r="S25" s="1">
-        <v>2.2408999999999999</v>
+        <v>8.2273999999999994</v>
       </c>
       <c r="T25" s="1">
-        <v>8.6999999999999994E-3</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="U25" s="1">
-        <v>1.0717000000000001</v>
+        <v>3.3412000000000002</v>
       </c>
       <c r="V25" s="1">
-        <v>1.0519000000000001</v>
+        <v>3.1657999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B26" s="1">
-        <v>0.24049999999999999</v>
+        <v>0.34599999999999997</v>
       </c>
       <c r="C26" s="1">
-        <v>0.89690000000000003</v>
+        <v>0.78659999999999997</v>
       </c>
       <c r="D26" s="1">
-        <v>3.8699999999999998E-2</v>
+        <v>5.6899999999999999E-2</v>
       </c>
       <c r="E26" s="1">
-        <v>2.6562000000000001</v>
+        <v>8.1622000000000003</v>
       </c>
       <c r="F26" s="1">
-        <v>1.1531</v>
+        <v>3.2317999999999998</v>
       </c>
       <c r="G26" s="2">
-        <v>3.1250000000000001E-6</v>
+        <v>1.5625000000000001E-6</v>
       </c>
       <c r="H26" s="1">
-        <v>5.5999999999999999E-3</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="I26" s="1">
-        <v>0.24840000000000001</v>
+        <v>0.35039999999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.23569999999999999</v>
+        <v>0.34</v>
       </c>
       <c r="K26" s="1">
-        <v>4.7999999999999996E-3</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="L26" s="1">
-        <v>0.90100000000000002</v>
+        <v>0.79390000000000005</v>
       </c>
       <c r="M26" s="1">
-        <v>0.8901</v>
+        <v>0.78120000000000001</v>
       </c>
       <c r="N26" s="1">
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="O26" s="1">
-        <v>3.9399999999999998E-2</v>
+        <v>5.74E-2</v>
       </c>
       <c r="P26" s="1">
-        <v>3.8399999999999997E-2</v>
+        <v>5.6500000000000002E-2</v>
       </c>
       <c r="Q26" s="1">
-        <v>0.112</v>
+        <v>8.4500000000000006E-2</v>
       </c>
       <c r="R26" s="1">
-        <v>2.8020999999999998</v>
+        <v>8.2270000000000003</v>
       </c>
       <c r="S26" s="1">
-        <v>2.5299</v>
+        <v>8.0427999999999997</v>
       </c>
       <c r="T26" s="1">
-        <v>3.2300000000000002E-2</v>
+        <v>1.9199999999999998E-2</v>
       </c>
       <c r="U26" s="1">
-        <v>1.1982999999999999</v>
+        <v>3.2467999999999999</v>
       </c>
       <c r="V26" s="1">
-        <v>1.1248</v>
+        <v>3.2046999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B27" s="1">
-        <v>0.23899999999999999</v>
+        <v>0.34210000000000002</v>
       </c>
       <c r="C27" s="1">
-        <v>0.8982</v>
+        <v>0.79139999999999999</v>
       </c>
       <c r="D27" s="1">
-        <v>3.8899999999999997E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="E27" s="1">
-        <v>3.6347</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1.0909</v>
+        <v>7.3015999999999996</v>
+      </c>
+      <c r="F27" s="1">
+        <v>3.2299000000000002</v>
       </c>
       <c r="G27" s="2">
-        <v>6.2500000000000003E-6</v>
+        <v>3.1250000000000001E-6</v>
       </c>
       <c r="H27" s="1">
+        <v>4.3E-3</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0.3377</v>
+      </c>
+      <c r="K27" s="1">
+        <v>5.3E-3</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0.79679999999999995</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0.78420000000000001</v>
+      </c>
+      <c r="N27" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="O27" s="1">
+        <v>5.7200000000000001E-2</v>
+      </c>
+      <c r="P27" s="1">
+        <v>5.6899999999999999E-2</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>7.2900000000000006E-2</v>
+      </c>
+      <c r="R27" s="1">
+        <v>7.3569000000000004</v>
+      </c>
+      <c r="S27" s="1">
+        <v>7.1985000000000001</v>
+      </c>
+      <c r="T27" s="1">
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="U27" s="1">
+        <v>3.2696000000000001</v>
+      </c>
+      <c r="V27" s="1">
+        <v>3.1738</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.35670000000000002</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.7732</v>
+      </c>
+      <c r="D28" s="1">
+        <v>5.7299999999999997E-2</v>
+      </c>
+      <c r="E28" s="1">
+        <v>9.8366000000000007</v>
+      </c>
+      <c r="F28" s="1">
+        <v>3.2342</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1.5625000000000001E-6</v>
+      </c>
+      <c r="H28" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0.3543</v>
+      </c>
+      <c r="K28" s="1">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="I27" s="1">
-        <v>0.24429999999999999</v>
-      </c>
-      <c r="J27" s="1">
-        <v>0.2351</v>
-      </c>
-      <c r="K27" s="1">
-        <v>3.3E-3</v>
-      </c>
-      <c r="L27" s="1">
-        <v>0.90139999999999998</v>
-      </c>
-      <c r="M27" s="1">
-        <v>0.89359999999999995</v>
-      </c>
-      <c r="N27" s="1">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="O27" s="1">
-        <v>3.95E-2</v>
-      </c>
-      <c r="P27" s="1">
-        <v>3.85E-2</v>
-      </c>
-      <c r="Q27" s="1">
-        <v>0.124</v>
-      </c>
-      <c r="R27" s="1">
-        <v>3.7307000000000001</v>
-      </c>
-      <c r="S27" s="1">
-        <v>3.4594999999999998</v>
-      </c>
-      <c r="T27" s="1">
-        <v>2.41E-2</v>
-      </c>
-      <c r="U27" s="1">
-        <v>1.1162000000000001</v>
-      </c>
-      <c r="V27" s="1">
-        <v>1.0586</v>
+      <c r="L28" s="1">
+        <v>0.77629999999999999</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0.76770000000000005</v>
+      </c>
+      <c r="N28" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="O28" s="1">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="P28" s="1">
+        <v>5.67E-2</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>0.1174</v>
+      </c>
+      <c r="R28" s="1">
+        <v>9.9998000000000005</v>
+      </c>
+      <c r="S28" s="1">
+        <v>9.7286000000000001</v>
+      </c>
+      <c r="T28" s="1">
+        <v>5.8900000000000001E-2</v>
+      </c>
+      <c r="U28" s="1">
+        <v>3.2985000000000002</v>
+      </c>
+      <c r="V28" s="1">
+        <v>3.1562000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A28" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="1">
-        <v>0.21829999999999999</v>
-      </c>
-      <c r="C28" s="1">
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="D28" s="1">
-        <v>4.0899999999999999E-2</v>
-      </c>
-      <c r="E28" s="1">
-        <v>1.4386000000000001</v>
-      </c>
-      <c r="F28" s="1">
-        <v>1.246</v>
-      </c>
-      <c r="G28" s="2">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="H28" s="1">
-        <v>3.5000000000000001E-3</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0.22320000000000001</v>
-      </c>
-      <c r="J28" s="1">
-        <v>0.2157</v>
-      </c>
-      <c r="K28" s="1">
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="L28" s="1">
-        <v>0.91710000000000003</v>
-      </c>
-      <c r="M28" s="1">
-        <v>0.91120000000000001</v>
-      </c>
-      <c r="N28" s="1">
+    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.34549999999999997</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.78710000000000002</v>
+      </c>
+      <c r="D29" s="1">
+        <v>5.7299999999999997E-2</v>
+      </c>
+      <c r="E29" s="1">
+        <v>7.3026999999999997</v>
+      </c>
+      <c r="F29" s="1">
+        <v>3.2256</v>
+      </c>
+      <c r="G29" s="2">
+        <v>3.1250000000000001E-6</v>
+      </c>
+      <c r="H29" s="1">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.3538</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0.34089999999999998</v>
+      </c>
+      <c r="K29" s="1">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0.79279999999999995</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0.77690000000000003</v>
+      </c>
+      <c r="N29" s="1">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="O28" s="1">
-        <v>4.1399999999999999E-2</v>
-      </c>
-      <c r="P28" s="1">
-        <v>4.0099999999999997E-2</v>
-      </c>
-      <c r="Q28" s="1">
-        <v>6.4100000000000004E-2</v>
-      </c>
-      <c r="R28" s="1">
-        <v>1.5158</v>
-      </c>
-      <c r="S28" s="1">
-        <v>1.3588</v>
-      </c>
-      <c r="T28" s="1">
-        <v>5.7999999999999996E-3</v>
-      </c>
-      <c r="U28" s="1">
-        <v>1.2533000000000001</v>
-      </c>
-      <c r="V28" s="1">
-        <v>1.2391000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="1">
-        <v>0.2472</v>
-      </c>
-      <c r="C29" s="1">
-        <v>0.89090000000000003</v>
-      </c>
-      <c r="D29" s="1">
-        <v>4.1099999999999998E-2</v>
-      </c>
-      <c r="E29" s="1">
-        <v>5.7386999999999997</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1.1552</v>
-      </c>
-      <c r="G29" s="2">
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="H29" s="1">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0.25990000000000002</v>
-      </c>
-      <c r="J29" s="1">
-        <v>0.24049999999999999</v>
-      </c>
-      <c r="K29" s="1">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="L29" s="1">
-        <v>0.89690000000000003</v>
-      </c>
-      <c r="M29" s="1">
-        <v>0.87960000000000005</v>
-      </c>
-      <c r="N29" s="1">
-        <v>6.9999999999999999E-4</v>
-      </c>
       <c r="O29" s="1">
-        <v>4.1599999999999998E-2</v>
+        <v>5.8200000000000002E-2</v>
       </c>
       <c r="P29" s="1">
-        <v>4.0099999999999997E-2</v>
+        <v>5.67E-2</v>
       </c>
       <c r="Q29" s="1">
-        <v>0.13969999999999999</v>
+        <v>0.1467</v>
       </c>
       <c r="R29" s="1">
-        <v>5.9362000000000004</v>
+        <v>7.5091000000000001</v>
       </c>
       <c r="S29" s="1">
-        <v>5.6379999999999999</v>
+        <v>7.1818999999999997</v>
       </c>
       <c r="T29" s="1">
-        <v>1.09E-2</v>
+        <v>2.0400000000000001E-2</v>
       </c>
       <c r="U29" s="1">
-        <v>1.1637999999999999</v>
+        <v>3.2406000000000001</v>
       </c>
       <c r="V29" s="1">
-        <v>1.1397999999999999</v>
+        <v>3.1968000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B30" s="1">
-        <v>0.24129999999999999</v>
+        <v>0.4894</v>
       </c>
       <c r="C30" s="1">
-        <v>0.8962</v>
+        <v>0.50490000000000002</v>
       </c>
       <c r="D30" s="1">
-        <v>4.24E-2</v>
+        <v>7.6600000000000001E-2</v>
       </c>
       <c r="E30" s="1">
-        <v>4.8356000000000003</v>
+        <v>20.751300000000001</v>
       </c>
       <c r="F30" s="1">
-        <v>1.35</v>
+        <v>6.8472999999999997</v>
       </c>
       <c r="G30" s="2">
-        <v>1.2500000000000001E-5</v>
+        <v>3.9062500000000002E-7</v>
       </c>
       <c r="H30" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>0.19570000000000001</v>
       </c>
       <c r="I30" s="1">
-        <v>0.247</v>
+        <v>0.76600000000000001</v>
       </c>
       <c r="J30" s="1">
-        <v>0.23810000000000001</v>
+        <v>0.34279999999999999</v>
       </c>
       <c r="K30" s="1">
-        <v>3.5000000000000001E-3</v>
+        <v>0.38950000000000001</v>
       </c>
       <c r="L30" s="1">
-        <v>0.89900000000000002</v>
+        <v>0.79049999999999998</v>
       </c>
       <c r="M30" s="1">
-        <v>0.89129999999999998</v>
+        <v>-4.58E-2</v>
       </c>
       <c r="N30" s="1">
-        <v>5.9999999999999995E-4</v>
+        <v>2.7900000000000001E-2</v>
       </c>
       <c r="O30" s="1">
-        <v>4.3299999999999998E-2</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="P30" s="1">
-        <v>4.1799999999999997E-2</v>
+        <v>5.67E-2</v>
       </c>
       <c r="Q30" s="1">
-        <v>0.1855</v>
+        <v>13.561500000000001</v>
       </c>
       <c r="R30" s="1">
-        <v>4.9672000000000001</v>
+        <v>39.929699999999997</v>
       </c>
       <c r="S30" s="1">
-        <v>4.5732999999999997</v>
+        <v>11.042400000000001</v>
       </c>
       <c r="T30" s="1">
-        <v>6.4399999999999999E-2</v>
+        <v>5.1726000000000001</v>
       </c>
       <c r="U30" s="1">
-        <v>1.4409000000000001</v>
+        <v>14.1624</v>
       </c>
       <c r="V30" s="1">
-        <v>1.3021</v>
+        <v>3.1762999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B31" s="1">
-        <v>0.23769999999999999</v>
+        <v>0.49280000000000002</v>
       </c>
       <c r="C31" s="1">
-        <v>0.89929999999999999</v>
+        <v>0.48680000000000001</v>
       </c>
       <c r="D31" s="1">
-        <v>4.2599999999999999E-2</v>
+        <v>7.8700000000000006E-2</v>
       </c>
       <c r="E31" s="1">
-        <v>4.1113</v>
+        <v>19.5855</v>
       </c>
       <c r="F31" s="1">
-        <v>1.4554</v>
+        <v>7.1250999999999998</v>
       </c>
       <c r="G31" s="2">
         <v>3.1250000000000001E-6</v>
       </c>
       <c r="H31" s="1">
-        <v>1.8E-3</v>
+        <v>0.2122</v>
       </c>
       <c r="I31" s="1">
-        <v>0.2402</v>
+        <v>0.79290000000000005</v>
       </c>
       <c r="J31" s="1">
-        <v>0.2364</v>
+        <v>0.34150000000000003</v>
       </c>
       <c r="K31" s="1">
-        <v>1.5E-3</v>
+        <v>0.42949999999999999</v>
       </c>
       <c r="L31" s="1">
-        <v>0.90039999999999998</v>
+        <v>0.79210000000000003</v>
       </c>
       <c r="M31" s="1">
-        <v>0.8972</v>
+        <v>-0.1206</v>
       </c>
       <c r="N31" s="1">
-        <v>2.9999999999999997E-4</v>
+        <v>2.9700000000000001E-2</v>
       </c>
       <c r="O31" s="1">
-        <v>4.3099999999999999E-2</v>
+        <v>0.1207</v>
       </c>
       <c r="P31" s="1">
-        <v>4.2200000000000001E-2</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="Q31" s="1">
-        <v>4.2700000000000002E-2</v>
+        <v>17.345600000000001</v>
       </c>
       <c r="R31" s="1">
-        <v>4.1642000000000001</v>
+        <v>44.1158</v>
       </c>
       <c r="S31" s="1">
-        <v>4.0597000000000003</v>
+        <v>7.3144</v>
       </c>
       <c r="T31" s="1">
-        <v>4.0800000000000003E-2</v>
+        <v>5.4447000000000001</v>
       </c>
       <c r="U31" s="1">
-        <v>1.5063</v>
+        <v>14.8249</v>
       </c>
       <c r="V31" s="1">
-        <v>1.4064000000000001</v>
+        <v>3.2452999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B32" s="1">
-        <v>0.2407</v>
+        <v>0.497</v>
       </c>
       <c r="C32" s="1">
-        <v>0.89670000000000005</v>
+        <v>0.47639999999999999</v>
       </c>
       <c r="D32" s="1">
-        <v>4.2700000000000002E-2</v>
+        <v>7.8899999999999998E-2</v>
       </c>
       <c r="E32" s="1">
-        <v>3.5501</v>
+        <v>19.441299999999998</v>
       </c>
       <c r="F32" s="1">
-        <v>1.5065999999999999</v>
+        <v>6.9273999999999996</v>
       </c>
       <c r="G32" s="2">
-        <v>1.2500000000000001E-5</v>
+        <v>7.8125000000000004E-7</v>
       </c>
       <c r="H32" s="1">
-        <v>2.2000000000000001E-3</v>
+        <v>0.21629999999999999</v>
       </c>
       <c r="I32" s="1">
-        <v>0.24279999999999999</v>
+        <v>0.80279999999999996</v>
       </c>
       <c r="J32" s="1">
-        <v>0.23760000000000001</v>
+        <v>0.33779999999999999</v>
       </c>
       <c r="K32" s="1">
-        <v>1.9E-3</v>
+        <v>0.442</v>
       </c>
       <c r="L32" s="1">
-        <v>0.89939999999999998</v>
+        <v>0.79659999999999997</v>
       </c>
       <c r="M32" s="1">
-        <v>0.89490000000000003</v>
+        <v>-0.1487</v>
       </c>
       <c r="N32" s="1">
-        <v>5.0000000000000001E-4</v>
+        <v>3.09E-2</v>
       </c>
       <c r="O32" s="1">
-        <v>4.3099999999999999E-2</v>
+        <v>0.1226</v>
       </c>
       <c r="P32" s="1">
-        <v>4.2000000000000003E-2</v>
+        <v>5.6899999999999999E-2</v>
       </c>
       <c r="Q32" s="1">
-        <v>8.6300000000000002E-2</v>
+        <v>15.9404</v>
       </c>
       <c r="R32" s="1">
-        <v>3.6234000000000002</v>
+        <v>41.984099999999998</v>
       </c>
       <c r="S32" s="1">
-        <v>3.4289999999999998</v>
+        <v>8.0640999999999998</v>
       </c>
       <c r="T32" s="1">
-        <v>3.5900000000000001E-2</v>
+        <v>5.2096</v>
       </c>
       <c r="U32" s="1">
-        <v>1.554</v>
+        <v>14.2948</v>
       </c>
       <c r="V32" s="1">
-        <v>1.4670000000000001</v>
+        <v>3.2105999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
-        <v>0.24890000000000001</v>
+        <v>0.50339999999999996</v>
       </c>
       <c r="C33" s="1">
-        <v>0.88949999999999996</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="D33" s="1">
-        <v>4.3700000000000003E-2</v>
+        <v>7.9500000000000001E-2</v>
       </c>
       <c r="E33" s="1">
-        <v>6.8122999999999996</v>
+        <v>19.607700000000001</v>
       </c>
       <c r="F33" s="1">
-        <v>1.4610000000000001</v>
+        <v>6.8977000000000004</v>
       </c>
       <c r="G33" s="2">
-        <v>1.2500000000000001E-5</v>
+        <v>1.9531250000000001E-7</v>
       </c>
       <c r="H33" s="1">
-        <v>6.1000000000000004E-3</v>
+        <v>0.21740000000000001</v>
       </c>
       <c r="I33" s="1">
-        <v>0.25569999999999998</v>
+        <v>0.81089999999999995</v>
       </c>
       <c r="J33" s="1">
-        <v>0.24079999999999999</v>
+        <v>0.3493</v>
       </c>
       <c r="K33" s="1">
-        <v>5.4999999999999997E-3</v>
+        <v>0.44979999999999998</v>
       </c>
       <c r="L33" s="1">
-        <v>0.89670000000000005</v>
+        <v>0.78249999999999997</v>
       </c>
       <c r="M33" s="1">
-        <v>0.88339999999999996</v>
+        <v>-0.1721</v>
       </c>
       <c r="N33" s="1">
-        <v>1.1999999999999999E-3</v>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="O33" s="1">
-        <v>4.4900000000000002E-2</v>
+        <v>0.1242</v>
       </c>
       <c r="P33" s="1">
-        <v>4.2099999999999999E-2</v>
+        <v>5.7099999999999998E-2</v>
       </c>
       <c r="Q33" s="1">
-        <v>0.29210000000000003</v>
+        <v>15.960100000000001</v>
       </c>
       <c r="R33" s="1">
-        <v>7.0274000000000001</v>
+        <v>42.1785</v>
       </c>
       <c r="S33" s="1">
-        <v>6.3994</v>
+        <v>8.2378999999999998</v>
       </c>
       <c r="T33" s="1">
-        <v>6.2799999999999995E-2</v>
+        <v>5.2530000000000001</v>
       </c>
       <c r="U33" s="1">
-        <v>1.5419</v>
+        <v>14.326499999999999</v>
       </c>
       <c r="V33" s="1">
-        <v>1.3887</v>
+        <v>3.1558999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B34" s="1">
-        <v>0.2293</v>
+        <v>0.50309999999999999</v>
       </c>
       <c r="C34" s="1">
-        <v>0.90629999999999999</v>
+        <v>0.45729999999999998</v>
       </c>
       <c r="D34" s="1">
-        <v>4.1300000000000003E-2</v>
+        <v>8.0399999999999999E-2</v>
       </c>
       <c r="E34" s="1">
-        <v>4.3780999999999999</v>
+        <v>18.979399999999998</v>
       </c>
       <c r="F34" s="1">
-        <v>1.4159999999999999</v>
+        <v>6.9745999999999997</v>
       </c>
       <c r="G34" s="2">
-        <v>6.2500000000000003E-6</v>
+        <v>1.5625000000000001E-6</v>
       </c>
       <c r="H34" s="1">
-        <v>3.3999999999999998E-3</v>
+        <v>0.2268</v>
       </c>
       <c r="I34" s="1">
-        <v>0.23319999999999999</v>
+        <v>0.82379999999999998</v>
       </c>
       <c r="J34" s="1">
-        <v>0.22489999999999999</v>
+        <v>0.33810000000000001</v>
       </c>
       <c r="K34" s="1">
-        <v>2.8E-3</v>
+        <v>0.47149999999999997</v>
       </c>
       <c r="L34" s="1">
-        <v>0.90990000000000004</v>
+        <v>0.79630000000000001</v>
       </c>
       <c r="M34" s="1">
-        <v>0.90310000000000001</v>
+        <v>-0.2094</v>
       </c>
       <c r="N34" s="1">
-        <v>8.9999999999999998E-4</v>
+        <v>3.2899999999999999E-2</v>
       </c>
       <c r="O34" s="1">
-        <v>4.24E-2</v>
+        <v>0.12690000000000001</v>
       </c>
       <c r="P34" s="1">
-        <v>4.02E-2</v>
+        <v>5.7099999999999998E-2</v>
       </c>
       <c r="Q34" s="1">
-        <v>0.18740000000000001</v>
+        <v>16.448399999999999</v>
       </c>
       <c r="R34" s="1">
-        <v>4.6356000000000002</v>
+        <v>42.241</v>
       </c>
       <c r="S34" s="1">
-        <v>4.1951000000000001</v>
+        <v>7.3244999999999996</v>
       </c>
       <c r="T34" s="1">
-        <v>3.9699999999999999E-2</v>
+        <v>5.3860999999999999</v>
       </c>
       <c r="U34" s="1">
-        <v>1.4698</v>
+        <v>14.5915</v>
       </c>
       <c r="V34" s="1">
-        <v>1.3754</v>
+        <v>3.1200999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B35" s="1">
-        <v>0.22359999999999999</v>
+        <v>0.63949999999999996</v>
       </c>
       <c r="C35" s="1">
-        <v>0.91090000000000004</v>
+        <v>0.20280000000000001</v>
       </c>
       <c r="D35" s="1">
-        <v>4.1700000000000001E-2</v>
+        <v>9.7699999999999995E-2</v>
       </c>
       <c r="E35" s="1">
-        <v>3.2707999999999999</v>
+        <v>30.529</v>
       </c>
       <c r="F35" s="1">
-        <v>1.4258</v>
+        <v>10.481299999999999</v>
       </c>
       <c r="G35" s="2">
-        <v>3.1250000000000001E-6</v>
+        <v>1.9531250000000001E-7</v>
       </c>
       <c r="H35" s="1">
-        <v>1.8E-3</v>
+        <v>0.19570000000000001</v>
       </c>
       <c r="I35" s="1">
-        <v>0.22589999999999999</v>
+        <v>0.7792</v>
       </c>
       <c r="J35" s="1">
-        <v>0.22140000000000001</v>
+        <v>0.36280000000000001</v>
       </c>
       <c r="K35" s="1">
-        <v>1.5E-3</v>
+        <v>0.39779999999999999</v>
       </c>
       <c r="L35" s="1">
-        <v>0.91269999999999996</v>
+        <v>0.76539999999999997</v>
       </c>
       <c r="M35" s="1">
-        <v>0.90910000000000002</v>
+        <v>-8.2000000000000003E-2</v>
       </c>
       <c r="N35" s="1">
-        <v>6.9999999999999999E-4</v>
+        <v>2.86E-2</v>
       </c>
       <c r="O35" s="1">
-        <v>4.2599999999999999E-2</v>
+        <v>0.1182</v>
       </c>
       <c r="P35" s="1">
-        <v>4.0899999999999999E-2</v>
+        <v>5.7299999999999997E-2</v>
       </c>
       <c r="Q35" s="1">
-        <v>0.10920000000000001</v>
+        <v>14.6556</v>
       </c>
       <c r="R35" s="1">
-        <v>3.4009999999999998</v>
+        <v>41.129199999999997</v>
       </c>
       <c r="S35" s="1">
-        <v>3.1337000000000002</v>
+        <v>9.8046000000000006</v>
       </c>
       <c r="T35" s="1">
-        <v>3.6499999999999998E-2</v>
+        <v>5.1321000000000003</v>
       </c>
       <c r="U35" s="1">
-        <v>1.4772000000000001</v>
+        <v>14.2225</v>
       </c>
       <c r="V35" s="1">
-        <v>1.3966000000000001</v>
+        <v>3.2246000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36" s="1">
-        <v>0.23319999999999999</v>
+        <v>0.64239999999999997</v>
       </c>
       <c r="C36" s="1">
-        <v>0.90310000000000001</v>
+        <v>0.19420000000000001</v>
       </c>
       <c r="D36" s="1">
-        <v>4.4299999999999999E-2</v>
+        <v>9.8199999999999996E-2</v>
       </c>
       <c r="E36" s="1">
-        <v>2.7721</v>
+        <v>30.253299999999999</v>
       </c>
       <c r="F36" s="1">
-        <v>1.6488</v>
+        <v>10.4016</v>
       </c>
       <c r="G36" s="2">
-        <v>6.2500000000000003E-6</v>
+        <v>3.9062500000000002E-7</v>
       </c>
       <c r="H36" s="1">
-        <v>4.4000000000000003E-3</v>
+        <v>0.1986</v>
       </c>
       <c r="I36" s="1">
-        <v>0.23780000000000001</v>
+        <v>0.78380000000000005</v>
       </c>
       <c r="J36" s="1">
-        <v>0.22720000000000001</v>
+        <v>0.36159999999999998</v>
       </c>
       <c r="K36" s="1">
-        <v>3.7000000000000002E-3</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="L36" s="1">
-        <v>0.90800000000000003</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="M36" s="1">
-        <v>0.8992</v>
+        <v>-9.4799999999999995E-2</v>
       </c>
       <c r="N36" s="1">
-        <v>2.0000000000000001E-4</v>
+        <v>2.92E-2</v>
       </c>
       <c r="O36" s="1">
-        <v>4.4499999999999998E-2</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="P36" s="1">
-        <v>4.3999999999999997E-2</v>
+        <v>5.6899999999999999E-2</v>
       </c>
       <c r="Q36" s="1">
-        <v>8.7300000000000003E-2</v>
+        <v>14.874599999999999</v>
       </c>
       <c r="R36" s="1">
-        <v>2.8921999999999999</v>
+        <v>41.096499999999999</v>
       </c>
       <c r="S36" s="1">
-        <v>2.6875</v>
+        <v>9.2208000000000006</v>
       </c>
       <c r="T36" s="1">
-        <v>4.0800000000000003E-2</v>
+        <v>5.0979000000000001</v>
       </c>
       <c r="U36" s="1">
-        <v>1.6883999999999999</v>
+        <v>14.161099999999999</v>
       </c>
       <c r="V36" s="1">
-        <v>1.5926</v>
+        <v>3.1943999999999999</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V36" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:V36">
     <filterColumn colId="0">
       <filters>
         <filter val="LSTM-ew2"/>
@@ -3544,246 +3528,10 @@
         <filter val="LSTM-sg9"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A23:V29">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V14">
       <sortCondition ref="D1:D36"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E56E0967-4BFF-4F6F-9FAC-90EC77A59D88}">
-  <dimension ref="G5:I24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="5" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="4">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="I5" s="5">
-        <v>1.0702</v>
-      </c>
-    </row>
-    <row r="6" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="4">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="I6" s="4">
-        <v>1.1581999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="4">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="I7" s="5">
-        <v>1.0641</v>
-      </c>
-    </row>
-    <row r="8" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="4">
-        <v>3.8600000000000002E-2</v>
-      </c>
-      <c r="I8" s="5">
-        <v>1.1136999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="4">
-        <v>3.8699999999999998E-2</v>
-      </c>
-      <c r="I9" s="4">
-        <v>1.1531</v>
-      </c>
-    </row>
-    <row r="10" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="4">
-        <v>3.8899999999999997E-2</v>
-      </c>
-      <c r="I10" s="5">
-        <v>1.0909</v>
-      </c>
-    </row>
-    <row r="11" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="4">
-        <v>3.9E-2</v>
-      </c>
-      <c r="I11" s="4">
-        <v>1.3082</v>
-      </c>
-    </row>
-    <row r="12" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="4">
-        <v>3.9199999999999999E-2</v>
-      </c>
-      <c r="I12" s="4">
-        <v>1.1839</v>
-      </c>
-    </row>
-    <row r="13" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" s="4">
-        <v>3.9399999999999998E-2</v>
-      </c>
-      <c r="I13" s="4">
-        <v>1.2182999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="4">
-        <v>0.04</v>
-      </c>
-      <c r="I14" s="4">
-        <v>1.2075</v>
-      </c>
-    </row>
-    <row r="15" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" s="4">
-        <v>4.02E-2</v>
-      </c>
-      <c r="I15" s="4">
-        <v>1.1545000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="4">
-        <v>4.0899999999999999E-2</v>
-      </c>
-      <c r="I16" s="4">
-        <v>1.246</v>
-      </c>
-    </row>
-    <row r="17" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="4">
-        <v>4.1099999999999998E-2</v>
-      </c>
-      <c r="I17" s="4">
-        <v>1.1552</v>
-      </c>
-    </row>
-    <row r="18" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="4">
-        <v>4.1300000000000003E-2</v>
-      </c>
-      <c r="I18" s="4">
-        <v>1.4159999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19" s="4">
-        <v>4.1700000000000001E-2</v>
-      </c>
-      <c r="I19" s="4">
-        <v>1.4258</v>
-      </c>
-    </row>
-    <row r="20" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="4">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="I20" s="4">
-        <v>1.2439</v>
-      </c>
-    </row>
-    <row r="21" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H21" s="4">
-        <v>4.24E-2</v>
-      </c>
-      <c r="I21" s="4">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="22" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H22" s="4">
-        <v>4.2599999999999999E-2</v>
-      </c>
-      <c r="I22" s="4">
-        <v>1.4554</v>
-      </c>
-    </row>
-    <row r="23" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H23" s="4">
-        <v>4.2700000000000002E-2</v>
-      </c>
-      <c r="I23" s="4">
-        <v>1.5065999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="4">
-        <v>4.3700000000000003E-2</v>
-      </c>
-      <c r="I24" s="4">
-        <v>1.4610000000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Thesis-codes/Exp-7/results/fc1_all_dataset.xlsx
+++ b/Thesis-codes/Exp-7/results/fc1_all_dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MPhil-thesis-github-library\MPhil-thesis\Thesis-codes\Exp-7\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEC74CF3-74AC-44BD-B549-090D4A693042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A08A98-BA06-40A8-927B-F50C6226489C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30009" yWindow="1714" windowWidth="27309" windowHeight="14332"/>
+    <workbookView xWindow="-23631" yWindow="3163" windowWidth="20408" windowHeight="13148" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fc1_all_dataset" sheetId="1" r:id="rId1"/>
@@ -196,7 +196,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1036,12 +1036,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:V36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3516,7 +3516,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V36">
+  <autoFilter ref="A1:V36" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
         <filter val="LSTM-ew2"/>
